--- a/Supplemental_Excel.xlsx
+++ b/Supplemental_Excel.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce55a8e48bd9bf7f/Desktop/ReposGoHere/PublicRepos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\OneDrive\Desktop\ReposGoHere\PublicRepos\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="8_{5C73338D-B8EC-4B18-9CAD-7B9B9CA15394}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{0BECFEE7-38C8-4BB7-95D3-A49989E9E925}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="8_{5C73338D-B8EC-4B18-9CAD-7B9B9CA15394}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{994815B0-338D-44D3-B3D3-7A00342BCEE9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" activeTab="1" xr2:uid="{261272EC-EE60-44CA-9508-88C02FE8EAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Engagment Analysis" sheetId="1" r:id="rId1"/>
     <sheet name="Workflow Map" sheetId="2" r:id="rId2"/>
+    <sheet name="Folder Organization" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>Views</t>
   </si>
@@ -74,6 +75,24 @@
   <si>
     <t>Modeling: Supervised, Unsupervised</t>
   </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>Input / Output</t>
+  </si>
+  <si>
+    <t>Indirect Input</t>
+  </si>
+  <si>
+    <t>Major Workbook Section</t>
+  </si>
+  <si>
+    <t>Prime Workflow</t>
+  </si>
+  <si>
+    <t>log Likes / log views</t>
+  </si>
 </sst>
 </file>
 
@@ -114,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +203,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -371,6 +402,11 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,13 +435,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -474,13 +510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>65088</xdr:rowOff>
@@ -530,13 +566,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
@@ -605,13 +641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
@@ -661,13 +697,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>12701</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>422276</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -719,13 +755,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -794,13 +830,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -869,13 +905,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -944,13 +980,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
@@ -1000,7 +1036,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1019,13 +1055,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>55563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
@@ -1075,16 +1111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>182562</xdr:colOff>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179387</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1099,8 +1135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5599113" y="2952750"/>
-          <a:ext cx="2508249" cy="1609726"/>
+          <a:off x="8485188" y="3686174"/>
+          <a:ext cx="2505074" cy="1685925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1221,16 +1257,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1248,8 +1284,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8104187" y="998538"/>
-          <a:ext cx="744538" cy="2759075"/>
+          <a:off x="10990262" y="1731963"/>
+          <a:ext cx="744538" cy="2797174"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1277,13 +1313,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1352,13 +1388,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>363538</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>465138</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -1410,13 +1446,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1485,13 +1521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
@@ -1541,13 +1577,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
@@ -1705,13 +1741,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1858,13 +1894,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>182562</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -1952,13 +1988,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -1979,8 +2015,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3962400" y="3757613"/>
-          <a:ext cx="1636713" cy="1503362"/>
+          <a:off x="6848475" y="4529137"/>
+          <a:ext cx="1636713" cy="1465263"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2008,13 +2044,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>68264</xdr:rowOff>
@@ -2064,13 +2100,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>103187</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>11111</xdr:rowOff>
@@ -2120,13 +2156,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
@@ -2178,13 +2214,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>182562</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>68264</xdr:rowOff>
@@ -2236,13 +2272,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>198437</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>11111</xdr:rowOff>
@@ -2294,13 +2330,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
@@ -2352,13 +2388,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>339726</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
@@ -2482,13 +2518,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2588,13 +2624,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2755,13 +2791,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>44451</xdr:rowOff>
@@ -2811,13 +2847,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>433389</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>339727</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
@@ -2867,13 +2903,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>433388</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
@@ -2923,13 +2959,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
@@ -2981,13 +3017,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>244475</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -3279,13 +3315,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>60324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
@@ -3408,13 +3444,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -3516,13 +3552,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>458788</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
@@ -3572,13 +3608,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>458789</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -3628,13 +3664,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>244475</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>463551</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>174624</xdr:rowOff>
@@ -3684,13 +3720,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
@@ -3759,13 +3795,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>549275</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3834,13 +3870,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>244475</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
@@ -3892,13 +3928,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
@@ -3950,13 +3986,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>549275</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>98426</xdr:rowOff>
@@ -4006,13 +4042,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4118,13 +4154,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
@@ -4212,13 +4248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -4324,13 +4360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -4380,13 +4416,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -4436,13 +4472,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>74613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -4492,13 +4528,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>593725</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>593725</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4548,13 +4584,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
@@ -4623,13 +4659,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -4757,13 +4793,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -4832,13 +4868,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -4891,13 +4927,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
@@ -4949,13 +4985,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5007,13 +5043,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -5066,13 +5102,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
@@ -5124,13 +5160,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -5212,13 +5248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>26988</xdr:rowOff>
@@ -5270,13 +5306,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -5395,13 +5431,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5453,13 +5489,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -5528,13 +5564,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>263525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -5603,13 +5639,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
@@ -5678,13 +5714,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -5766,13 +5802,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -5854,13 +5890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>430213</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>98424</xdr:rowOff>
@@ -5910,13 +5946,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>430212</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>425449</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
@@ -5966,13 +6002,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
@@ -6026,13 +6062,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>195263</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -6083,13 +6119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>530225</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -6171,13 +6207,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>574675</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -6227,13 +6263,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
@@ -6285,13 +6321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
@@ -6344,13 +6380,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -6403,13 +6439,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -6478,13 +6514,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>41276</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>188914</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
@@ -6534,13 +6570,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
@@ -6609,13 +6645,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
@@ -6665,13 +6701,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -6762,13 +6798,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>188913</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>195263</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -6818,13 +6854,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>358775</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -6893,13 +6929,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>358775</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -6949,13 +6985,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>415925</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -7037,13 +7073,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>163513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>415925</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
@@ -7083,6 +7119,3690 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1465262</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>493712</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Rectangle 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ADDF83-A5A6-46B9-9FF7-787D3187F5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1465262" y="1504950"/>
+          <a:ext cx="1304925" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Data &amp; Outputs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1216024</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Oval 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A98AEC3-7765-4824-95AC-ADB06715C7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1216024" y="2463800"/>
+          <a:ext cx="1803400" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Notebook title</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle: Rounded Corners 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84170B48-22F3-4FE4-A983-D07FB913C40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="3419476"/>
+          <a:ext cx="2508249" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Transformations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> and Data Manipulation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>84138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FF79A0-2782-4E0F-A114-A26FA5842AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="4618038"/>
+          <a:ext cx="609600" cy="1587"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E704CB-437B-494C-814B-BA44C54473FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="4829175"/>
+          <a:ext cx="619125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C42EA77-4188-4C2C-A7ED-64140A005EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="5000625"/>
+          <a:ext cx="619125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDotDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1265238</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rectangle 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99209F3-6AB0-4CA8-9878-C024D0B5B492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1265238" y="5753100"/>
+          <a:ext cx="1308100" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Raw Data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1019176</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Oval 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E123F03-22F2-411C-8F57-5215C58E236A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019176" y="6835775"/>
+          <a:ext cx="1800225" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETL Alphabet DataPull</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1266826</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rectangle 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C9318E-303A-418A-99DC-8275AE3C9A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266826" y="8207375"/>
+          <a:ext cx="1304925" cy="555625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>clean_data_nocomments_noviews</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1020763</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541338</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Oval 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CE3009-9F9D-4A47-9220-CDAA15287464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1020763" y="9420225"/>
+          <a:ext cx="1797050" cy="730250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EDA Dedicated</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1017588</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>544513</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Oval 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB360FE-52DF-4F36-9189-F6AD447317AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1017588" y="10801350"/>
+          <a:ext cx="1803400" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Feature Engineering </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1016001</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>539751</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Oval 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA41C77-4144-4E74-9760-1BE301724B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1016001" y="12160250"/>
+          <a:ext cx="1800225" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Regression_v2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>249239</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BBB8B7-2B75-4A7C-8EDB-F3DAADF52E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="100" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1916114" y="6292850"/>
+          <a:ext cx="3174" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>249239</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>249239</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Straight Arrow Connector 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA1DE0B-7BFB-45CB-9B65-14D205E7C905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="4"/>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1916114" y="7569200"/>
+          <a:ext cx="0" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>249239</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Straight Arrow Connector 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A87BE6-0F7A-43CD-BC63-549F03596216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="2"/>
+          <a:endCxn id="102" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1916114" y="8759825"/>
+          <a:ext cx="3174" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBCAF61-14F6-4168-9AD7-9A43B48E344D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="4"/>
+          <a:endCxn id="103" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1919288" y="10153650"/>
+          <a:ext cx="0" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Straight Arrow Connector 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6BA718-26CF-4946-93B3-72966F7F1969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="4"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1919288" y="11531600"/>
+          <a:ext cx="1" cy="631825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1262063</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>293688</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rectangle 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD21E385-7EF7-4E2D-8159-1BF611C9405E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1262063" y="13550900"/>
+          <a:ext cx="1308100" cy="555625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>predictive model</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Arrow Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEC402F-7058-48A3-A693-278D9FAED001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="4"/>
+          <a:endCxn id="125" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1919288" y="12893675"/>
+          <a:ext cx="1" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724315F3-E576-49E1-B1DF-7BD241CA7C4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="2498723"/>
+          <a:ext cx="2619375" cy="2819401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Capstone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Discussion</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Supplemental</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Excel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Workbooks:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ETL_Alphabet_dataPull</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EDA_Decidated</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Feature_engineering_dedicated</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Regression_v2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Classification_v2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Feature_Engineering_Pull2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NLP_v1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A88281-21DF-471C-9D1B-FB4E47E61798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="6572249"/>
+          <a:ext cx="2616200" cy="673101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>workbook_archive</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Old versions and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> notebooks abandoned due to lack of relevance</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143D54F5-DE88-4978-9B35-57B853DA7504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="5715000"/>
+          <a:ext cx="2619375" cy="673101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>background</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Outside reading</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> for reference. Currently NA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74686A62-139B-4A65-A414-F463C18B61D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="4752975"/>
+          <a:ext cx="2619375" cy="676276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>assets</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>images for use in readme</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96839886-F0D9-4CA7-A733-A3841C3873C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="3930650"/>
+          <a:ext cx="2619375" cy="679451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>youtube_background</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sample code for generic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> youtube api use in python</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13208AB-F413-4B09-9513-8E491D40D72E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="2838451"/>
+          <a:ext cx="2616200" cy="885826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>chromedriver</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>files for running</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> selenium. failed attempt to scrape data from youtube and google trends without API</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD40A24B-BBAB-40E8-B992-6B00F8CE9BCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4292600" y="400049"/>
+          <a:ext cx="3124200" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>clean_data_...10.10.18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>Second ETL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> query, stuctured same as first. Meant to pull in a newer and cleaner testing set. This is the data from bigletters after initial cleansing.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>clean_data_...02.10.18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  Output of ETL pull on October 2. Basis for all modeling and prime path EDA and Feature engineering. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>k_classified_data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  Output from unsupervised learning model intended to be used for word clouds</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D822B48-F21C-4F01-8587-CF931B3F9546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096375" y="511175"/>
+          <a:ext cx="2619375" cy="685801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Archive</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>mainly earlier test</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> queries and other unused data files</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4373099-888F-44DA-8ED9-729169681C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="1450974"/>
+          <a:ext cx="2616200" cy="1911351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>cat10_relevance</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>precursors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> to clean_data files. These are the raw outputs of the ETL pulls</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bigletters</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Aggregated data from Round1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> subfolder (pre cleaning)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>bigletters2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Aggregated data from Round2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> subfolder (pre cleaning)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FF943E-8E84-4F07-867B-78FDD6FD5BBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096375" y="4029075"/>
+          <a:ext cx="2616200" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>engineered_data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data_engineered_10.9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>data_engineered_round2_10.14 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>title_wordvec</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>tag_wordvec</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>description_wordvec</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1018D52D-4848-4C05-B0A6-D28BADC19A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8855075" y="6181724"/>
+          <a:ext cx="2622550" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>classifieds</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>kclassed data for manual examination</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t># - individual csv output</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>all_groups</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF423E21-CC0B-4E3B-B613-90BCE7C8D8D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2971800" y="1557337"/>
+          <a:ext cx="1320800" cy="2347912"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>20639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E380972D-D638-47E8-A106-BA988CF73D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2971800" y="3278189"/>
+          <a:ext cx="1339850" cy="627060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3125A7-2A0A-4598-8018-5F6F0874F26C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="3905249"/>
+          <a:ext cx="1292225" cy="363539"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22226</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFD0372-7913-4801-B62F-3FCAA4B3A19E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="3905249"/>
+          <a:ext cx="1292225" cy="1184277"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>77788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62960EC6-5BCC-44CE-A3FA-E4891ABB2DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="3905249"/>
+          <a:ext cx="1244600" cy="2144714"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF3868C-E1FC-44AD-A49F-6C768D1DFA0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="3905249"/>
+          <a:ext cx="1219200" cy="3005138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>130176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FFCB9E-9147-4415-818C-0F264359D487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7416800" y="854076"/>
+          <a:ext cx="1676400" cy="703261"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B762251F-58F1-4CD5-A9BD-49C24A65F2D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416800" y="1557337"/>
+          <a:ext cx="1727200" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019E5F62-DDAC-4D8E-A640-7454CF665217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="1558924"/>
+          <a:ext cx="1676400" cy="3384551"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA5B569-EF71-4631-980E-2787A6EFCF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="1558924"/>
+          <a:ext cx="1435100" cy="5275263"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="TextBox 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7EB4DD-BE51-4A6E-971B-E4364F7B9D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="742951"/>
+          <a:ext cx="2619375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Coloration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> denotes prime path</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="TextBox 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B9FCE9-C445-4EB3-A28B-FC22A5571607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13277850" y="542924"/>
+          <a:ext cx="2619375" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Round1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>outputs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> of each individual sub-query from ETL_alphabet. Round 1 is the data used for all training and modelling. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="TextBox 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6C6D68-5745-426D-A67E-F0879B4653B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13277850" y="1447800"/>
+          <a:ext cx="2616200" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Round2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>outputs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of each individual sub-query from ETL_alphabet. Round 2 is the data used for assessment of model on newer videos</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>46037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3944911D-F793-476D-BB11-02D33326AE11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11760200" y="950912"/>
+          <a:ext cx="1517650" cy="1455738"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECF42E8-3E65-4450-B6CC-E3839A8AB365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="86" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11760200" y="1931988"/>
+          <a:ext cx="1517650" cy="474662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="TextBox 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086AF5D3-BC2A-4345-A4AB-192D66E2A1D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13303250" y="3968750"/>
+          <a:ext cx="2622550" cy="685801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Archive</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Unused or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> outdated data files</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Arrow Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B7CAC3-E624-4206-862A-044BA0D1F458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="117" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11712575" y="4311651"/>
+          <a:ext cx="1593850" cy="628649"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -7391,336 +11111,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93511403-65C8-42C9-8D10-FBFAE41D1123}">
-  <dimension ref="A2:O20"/>
+  <dimension ref="B2:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18">
+      <c r="C3" s="18">
         <v>6.9580000000000002</v>
       </c>
-      <c r="C3" s="18">
+      <c r="D3" s="18">
         <v>3.25</v>
       </c>
-      <c r="D3" s="18">
-        <f t="shared" ref="D3:D4" si="0">B3/C3</f>
+      <c r="E3" s="18">
+        <f t="shared" ref="E3:E4" si="0">C3/D3</f>
         <v>2.1409230769230772</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13">
-        <f>VLOOKUP($F3, $A$3:$B$6,2,0)/VLOOKUP(H$2, $A$3:$B$6,2,0)</f>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13">
+        <f>VLOOKUP($G3, $B$3:$C$6,2,0)/VLOOKUP(I$2, $B$3:$C$6,2,0)</f>
         <v>1.5802861685214629</v>
       </c>
-      <c r="I3" s="13">
-        <f>VLOOKUP($F3, $A$3:$B$6,2,0)/VLOOKUP(I$2, $A$3:$B$6,2,0)</f>
+      <c r="J3" s="13">
+        <f>VLOOKUP($G3, $B$3:$C$6,2,0)/VLOOKUP(J$2, $B$3:$C$6,2,0)</f>
         <v>2.3666666666666667</v>
       </c>
-      <c r="J3" s="13">
-        <f>VLOOKUP($F3, $A$3:$B$6,2,0)/VLOOKUP(J$2, $A$3:$B$6,2,0)</f>
+      <c r="K3" s="13">
+        <f>VLOOKUP($G3, $B$3:$C$6,2,0)/VLOOKUP(K$2, $B$3:$C$6,2,0)</f>
         <v>2.2244245524296673</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="6"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="C4" s="18">
         <v>4.4029999999999996</v>
       </c>
-      <c r="C4" s="22">
+      <c r="D4" s="22">
         <v>1.6</v>
       </c>
-      <c r="D4" s="22">
+      <c r="E4" s="22">
         <f t="shared" si="0"/>
         <v>2.7518749999999996</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14">
-        <f t="shared" ref="G4:G6" si="1">VLOOKUP($F4, $A$3:$B$6,2,0)/VLOOKUP(G$2, $A$3:$B$6,2,0)</f>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H6" si="1">VLOOKUP($G4, $B$3:$C$6,2,0)/VLOOKUP(H$2, $B$3:$C$6,2,0)</f>
         <v>0.6327967806841045</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13">
-        <f>VLOOKUP($F4, $A$3:$B$6,2,0)/VLOOKUP(I$2, $A$3:$B$6,2,0)</f>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
+        <f>VLOOKUP($G4, $B$3:$C$6,2,0)/VLOOKUP(J$2, $B$3:$C$6,2,0)</f>
         <v>1.4976190476190474</v>
       </c>
-      <c r="J4" s="13">
-        <f>VLOOKUP($F4, $A$3:$B$6,2,0)/VLOOKUP(J$2, $A$3:$B$6,2,0)</f>
+      <c r="K4" s="13">
+        <f>VLOOKUP($G4, $B$3:$C$6,2,0)/VLOOKUP(K$2, $B$3:$C$6,2,0)</f>
         <v>1.4076086956521738</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21">
+      <c r="C5" s="21">
         <v>2.94</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="H5" s="14">
         <f t="shared" si="1"/>
         <v>0.42253521126760563</v>
       </c>
-      <c r="H5" s="14">
-        <f>VLOOKUP($F5, $A$3:$B$6,2,0)/VLOOKUP(H$2, $A$3:$B$6,2,0)</f>
+      <c r="I5" s="14">
+        <f>VLOOKUP($G5, $B$3:$C$6,2,0)/VLOOKUP(I$2, $B$3:$C$6,2,0)</f>
         <v>0.66772655007949133</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13">
-        <f>VLOOKUP($F5, $A$3:$B$6,2,0)/VLOOKUP(J$2, $A$3:$B$6,2,0)</f>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13">
+        <f>VLOOKUP($G5, $B$3:$C$6,2,0)/VLOOKUP(K$2, $B$3:$C$6,2,0)</f>
         <v>0.93989769820971858</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="21">
+      <c r="C6" s="21">
         <v>3.1280000000000001</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="G6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="14">
+      <c r="H6" s="14">
         <f t="shared" si="1"/>
         <v>0.44955446967519402</v>
       </c>
-      <c r="H6" s="14">
-        <f>VLOOKUP($F6, $A$3:$B$6,2,0)/VLOOKUP(H$2, $A$3:$B$6,2,0)</f>
+      <c r="I6" s="14">
+        <f>VLOOKUP($G6, $B$3:$C$6,2,0)/VLOOKUP(I$2, $B$3:$C$6,2,0)</f>
         <v>0.71042471042471056</v>
       </c>
-      <c r="I6" s="14">
-        <f>VLOOKUP($F6, $A$3:$B$6,2,0)/VLOOKUP(I$2, $A$3:$B$6,2,0)</f>
+      <c r="J6" s="14">
+        <f>VLOOKUP($G6, $B$3:$C$6,2,0)/VLOOKUP(J$2, $B$3:$C$6,2,0)</f>
         <v>1.0639455782312925</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="2"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="15" t="s">
         <v>0</v>
-      </c>
-      <c r="B11" s="17">
-        <f>10^B3</f>
-        <v>9078205.3017818853</v>
       </c>
       <c r="C11" s="17">
         <f>10^C3</f>
+        <v>9078205.3017818853</v>
+      </c>
+      <c r="D11" s="17">
+        <f>10^D3</f>
         <v>1778.2794100389244</v>
       </c>
-      <c r="D11" s="19">
-        <f>B11/C11</f>
+      <c r="E11" s="19">
+        <f>C11/D11</f>
         <v>5105.0499997540737</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11">
-        <f>VLOOKUP($F11, $A$11:$B$14,2,0)/VLOOKUP(H$2, $A$11:$B$14,2,0)</f>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11">
+        <f>VLOOKUP($G11, $B$11:$C$14,2,0)/VLOOKUP(I$2, $B$11:$C$14,2,0)</f>
         <v>358.92193464500662</v>
       </c>
-      <c r="I11" s="11">
-        <f>VLOOKUP($F11, $A$11:$B$14,2,0)/VLOOKUP(I$2, $A$11:$B$14,2,0)</f>
+      <c r="J11" s="11">
+        <f>VLOOKUP($G11, $B$11:$C$14,2,0)/VLOOKUP(J$2, $B$11:$C$14,2,0)</f>
         <v>10423.174293933071</v>
       </c>
-      <c r="J11" s="11">
-        <f>VLOOKUP($F11, $A$11:$B$14,2,0)/VLOOKUP(J$2, $A$11:$B$14,2,0)</f>
+      <c r="K11" s="11">
+        <f>VLOOKUP($G11, $B$11:$C$14,2,0)/VLOOKUP(K$2, $B$11:$C$14,2,0)</f>
         <v>6760.8297539198338</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
         <v>3</v>
-      </c>
-      <c r="B12" s="17">
-        <f>10^B4</f>
-        <v>25292.979964461425</v>
       </c>
       <c r="C12" s="17">
         <f>10^C4</f>
+        <v>25292.979964461425</v>
+      </c>
+      <c r="D12" s="17">
+        <f>10^D4</f>
         <v>39.810717055349755</v>
       </c>
-      <c r="D12" s="19">
-        <f>B12/C12</f>
+      <c r="E12" s="19">
+        <f>C12/D12</f>
         <v>635.33093185174266</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="12">
-        <f>VLOOKUP($F12, $A$11:$B$14,2,0)/VLOOKUP(G$2, $A$11:$B$14,2,0)</f>
+      <c r="H12" s="12">
+        <f>VLOOKUP($G12, $B$11:$C$14,2,0)/VLOOKUP(H$2, $B$11:$C$14,2,0)</f>
         <v>2.7861211686297594E-3</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11">
-        <f>VLOOKUP($F12, $A$11:$B$14,2,0)/VLOOKUP(I$2, $A$11:$B$14,2,0)</f>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11">
+        <f>VLOOKUP($G12, $B$11:$C$14,2,0)/VLOOKUP(J$2, $B$11:$C$14,2,0)</f>
         <v>29.040226544644472</v>
       </c>
-      <c r="J12" s="11">
-        <f>VLOOKUP($F12, $A$11:$B$14,2,0)/VLOOKUP(J$2, $A$11:$B$14,2,0)</f>
+      <c r="K12" s="11">
+        <f>VLOOKUP($G12, $B$11:$C$14,2,0)/VLOOKUP(K$2, $B$11:$C$14,2,0)</f>
         <v>18.836490894897977</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="17">
-        <f>10^B5</f>
+      <c r="C13" s="17">
+        <f>10^C5</f>
         <v>870.96358995608091</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="G13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="12">
-        <f>VLOOKUP($F13, $A$11:$B$14,2,0)/VLOOKUP(G$2, $A$11:$B$14,2,0)</f>
+      <c r="H13" s="12">
+        <f>VLOOKUP($G13, $B$11:$C$14,2,0)/VLOOKUP(H$2, $B$11:$C$14,2,0)</f>
         <v>9.5940063151593051E-5</v>
       </c>
-      <c r="H13" s="12">
-        <f>VLOOKUP($F13, $A$11:$B$14,2,0)/VLOOKUP(H$2, $A$11:$B$14,2,0)</f>
+      <c r="I13" s="12">
+        <f>VLOOKUP($G13, $B$11:$C$14,2,0)/VLOOKUP(I$2, $B$11:$C$14,2,0)</f>
         <v>3.4434993076333888E-2</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11">
-        <f>VLOOKUP($F13, $A$11:$B$14,2,0)/VLOOKUP(J$2, $A$11:$B$14,2,0)</f>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11">
+        <f>VLOOKUP($G13, $B$11:$C$14,2,0)/VLOOKUP(K$2, $B$11:$C$14,2,0)</f>
         <v>0.64863443354823813</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="17">
-        <f>10^B6</f>
+      <c r="C14" s="17">
+        <f>10^C6</f>
         <v>1342.7649611378647</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="F14" s="9" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="G14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="12">
-        <f>VLOOKUP($F14, $A$11:$B$14,2,0)/VLOOKUP(G$2, $A$11:$B$14,2,0)</f>
+      <c r="H14" s="12">
+        <f>VLOOKUP($G14, $B$11:$C$14,2,0)/VLOOKUP(H$2, $B$11:$C$14,2,0)</f>
         <v>1.4791083881682038E-4</v>
       </c>
-      <c r="H14" s="12">
-        <f>VLOOKUP($F14, $A$11:$B$14,2,0)/VLOOKUP(H$2, $A$11:$B$14,2,0)</f>
+      <c r="I14" s="12">
+        <f>VLOOKUP($G14, $B$11:$C$14,2,0)/VLOOKUP(I$2, $B$11:$C$14,2,0)</f>
         <v>5.3088444423098916E-2</v>
       </c>
-      <c r="I14" s="12">
-        <f>VLOOKUP($F14, $A$11:$B$14,2,0)/VLOOKUP(I$2, $A$11:$B$14,2,0)</f>
+      <c r="J14" s="12">
+        <f>VLOOKUP($G14, $B$11:$C$14,2,0)/VLOOKUP(J$2, $B$11:$C$14,2,0)</f>
         <v>1.5417004529495599</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C17">
-        <f>C4/C3</f>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <f>D4/D3</f>
         <v>0.49230769230769234</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="1">
-        <f>B12/C12</f>
-        <v>635.33093185174266</v>
-      </c>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7730,30 +11448,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA93D87-C1D9-4C02-9C75-3797DDA0A849}">
-  <dimension ref="A1:BI95"/>
+  <dimension ref="A1:BN95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AY32" sqref="AY32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="17" width="8.7265625" style="27"/>
-    <col min="18" max="28" width="8.7265625" style="28"/>
-    <col min="29" max="41" width="8.7265625" style="29"/>
-    <col min="42" max="57" width="8.7265625" style="30"/>
-    <col min="58" max="16384" width="8.7265625" style="27"/>
+    <col min="1" max="1" width="23.90625" style="34" customWidth="1"/>
+    <col min="2" max="5" width="8.7265625" style="34"/>
+    <col min="6" max="22" width="8.7265625" style="27"/>
+    <col min="23" max="33" width="8.7265625" style="28"/>
+    <col min="34" max="46" width="8.7265625" style="29"/>
+    <col min="47" max="62" width="8.7265625" style="30"/>
+    <col min="63" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:62" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
@@ -7765,27 +11487,27 @@
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
-      <c r="R1" s="33" t="s">
-        <v>11</v>
-      </c>
+      <c r="R1" s="32"/>
       <c r="S1" s="32"/>
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="33"/>
       <c r="AB1" s="32"/>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
       <c r="AI1" s="33"/>
       <c r="AJ1" s="33"/>
       <c r="AK1" s="33"/>
@@ -7793,14 +11515,14 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
       <c r="AO1" s="33"/>
-      <c r="AP1" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="AP1" s="33"/>
       <c r="AQ1" s="33"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="33"/>
       <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
+      <c r="AU1" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="AV1" s="33"/>
       <c r="AW1" s="33"/>
       <c r="AX1" s="33"/>
@@ -7811,9 +11533,34 @@
       <c r="BC1" s="33"/>
       <c r="BD1" s="33"/>
       <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
     </row>
-    <row r="95" spans="61:61" x14ac:dyDescent="0.35">
-      <c r="BI95" s="27" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="66:66" x14ac:dyDescent="0.35">
+      <c r="BN95" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7821,4 +11568,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C5F6F7-DFED-450D-9AF6-86F48E760633}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="36"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Supplemental_Excel.xlsx
+++ b/Supplemental_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\OneDrive\Desktop\ReposGoHere\PublicRepos\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="8_{5C73338D-B8EC-4B18-9CAD-7B9B9CA15394}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{994815B0-338D-44D3-B3D3-7A00342BCEE9}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{5C73338D-B8EC-4B18-9CAD-7B9B9CA15394}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{416908B1-A18E-4845-A13A-43679C088098}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" activeTab="1" xr2:uid="{261272EC-EE60-44CA-9508-88C02FE8EAF8}"/>
   </bookViews>
@@ -6353,7 +6353,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 52983"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7535,13 +7535,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1265238</xdr:colOff>
+      <xdr:colOff>1264445</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
+      <xdr:colOff>296070</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
@@ -7558,8 +7558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1265238" y="5753100"/>
-          <a:ext cx="1308100" cy="539750"/>
+          <a:off x="1264445" y="5721350"/>
+          <a:ext cx="1317625" cy="536575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7610,13 +7610,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1019176</xdr:colOff>
+      <xdr:colOff>1018382</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
+      <xdr:colOff>542132</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -7633,8 +7633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019176" y="6835775"/>
-          <a:ext cx="1800225" cy="736600"/>
+          <a:off x="1018382" y="6797675"/>
+          <a:ext cx="1809750" cy="732367"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7685,13 +7685,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1266826</xdr:colOff>
+      <xdr:colOff>1266032</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
+      <xdr:colOff>294482</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -7708,8 +7708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1266826" y="8207375"/>
-          <a:ext cx="1304925" cy="555625"/>
+          <a:off x="1266032" y="8160808"/>
+          <a:ext cx="1314450" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7760,13 +7760,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1020763</xdr:colOff>
+      <xdr:colOff>1019970</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>541338</xdr:colOff>
+      <xdr:colOff>540545</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -7783,8 +7783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1020763" y="9420225"/>
-          <a:ext cx="1797050" cy="730250"/>
+          <a:off x="1019970" y="9366250"/>
+          <a:ext cx="1806575" cy="726017"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7835,13 +7835,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1017588</xdr:colOff>
+      <xdr:colOff>1016795</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>544513</xdr:colOff>
+      <xdr:colOff>543720</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -7858,8 +7858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1017588" y="10801350"/>
-          <a:ext cx="1803400" cy="733425"/>
+          <a:off x="1016795" y="10739967"/>
+          <a:ext cx="1812925" cy="729191"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7910,15 +7910,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1016001</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>1018382</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>539751</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:colOff>542132</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>98426</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7933,8 +7933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1016001" y="12160250"/>
-          <a:ext cx="1800225" cy="733425"/>
+          <a:off x="1018382" y="13413317"/>
+          <a:ext cx="1809750" cy="729192"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7985,13 +7985,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>249239</xdr:colOff>
+      <xdr:colOff>251090</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
+      <xdr:colOff>251091</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
@@ -8011,8 +8011,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1916114" y="6292850"/>
-          <a:ext cx="3174" cy="542925"/>
+          <a:off x="1923257" y="6257925"/>
+          <a:ext cx="1" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8041,13 +8041,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>249239</xdr:colOff>
+      <xdr:colOff>251090</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>249239</xdr:colOff>
+      <xdr:colOff>251090</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
@@ -8067,8 +8067,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1916114" y="7569200"/>
-          <a:ext cx="0" cy="638175"/>
+          <a:off x="1923257" y="7530042"/>
+          <a:ext cx="0" cy="630766"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8097,13 +8097,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>249239</xdr:colOff>
+      <xdr:colOff>251090</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
+      <xdr:colOff>251091</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8123,8 +8123,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1916114" y="8759825"/>
-          <a:ext cx="3174" cy="660400"/>
+          <a:off x="1923257" y="8713258"/>
+          <a:ext cx="1" cy="652992"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8153,22 +8153,340 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
+      <xdr:colOff>251091</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251091</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Straight Arrow Connector 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6BA718-26CF-4946-93B3-72966F7F1969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="4"/>
+          <a:endCxn id="109" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1923258" y="11469158"/>
+          <a:ext cx="0" cy="680509"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1264445</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>32809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>296070</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>45509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rectangle 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD21E385-7EF7-4E2D-8159-1BF611C9405E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1264445" y="14796559"/>
+          <a:ext cx="1317625" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>predictive model</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251090</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>98426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251091</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>32809</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Arrow Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEC402F-7058-48A3-A693-278D9FAED001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="4"/>
+          <a:endCxn id="125" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1923257" y="14142509"/>
+          <a:ext cx="1" cy="654050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1266562</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>293953</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>91017</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rectangle 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39C02AB-04F0-414D-B3F7-5ECD00E0E9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266562" y="12149667"/>
+          <a:ext cx="1313391" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data_engineered</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251090</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>91017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251091</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Straight Arrow Connector 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636FF6CB-6CB2-4D5F-A2AC-36EACE5A0B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="2"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1923257" y="12695767"/>
+          <a:ext cx="1" cy="717550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251091</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
+      <xdr:colOff>251091</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="Straight Arrow Connector 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBCAF61-14F6-4168-9AD7-9A43B48E344D}"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F1698C-2382-45CF-B3B8-5203EFAE14C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8179,211 +8497,25 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1919288" y="10153650"/>
+          <a:off x="1923258" y="10092267"/>
           <a:ext cx="0" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="2">
           <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>252414</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="Straight Arrow Connector 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6BA718-26CF-4946-93B3-72966F7F1969}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="103" idx="4"/>
-          <a:endCxn id="104" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1919288" y="11531600"/>
-          <a:ext cx="1" cy="631825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1262063</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>293688</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Rectangle 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD21E385-7EF7-4E2D-8159-1BF611C9405E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1262063" y="13550900"/>
-          <a:ext cx="1308100" cy="555625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>predictive model</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>252414</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="Straight Arrow Connector 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEC402F-7058-48A3-A693-278D9FAED001}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="104" idx="4"/>
-          <a:endCxn id="125" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1919288" y="12893675"/>
-          <a:ext cx="1" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -11450,8 +11582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA93D87-C1D9-4C02-9C75-3797DDA0A849}">
   <dimension ref="A1:BN95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Supplemental_Excel.xlsx
+++ b/Supplemental_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\OneDrive\Desktop\ReposGoHere\PublicRepos\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="8_{5C73338D-B8EC-4B18-9CAD-7B9B9CA15394}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{416908B1-A18E-4845-A13A-43679C088098}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="8_{5C73338D-B8EC-4B18-9CAD-7B9B9CA15394}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{1A198F8C-C0AC-45B0-A574-813678FC735F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" activeTab="1" xr2:uid="{261272EC-EE60-44CA-9508-88C02FE8EAF8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" activeTab="2" xr2:uid="{261272EC-EE60-44CA-9508-88C02FE8EAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Engagment Analysis" sheetId="1" r:id="rId1"/>
@@ -435,13 +435,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -510,13 +510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>65088</xdr:rowOff>
@@ -566,13 +566,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
@@ -641,13 +641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
@@ -697,13 +697,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>12701</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>422276</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -755,13 +755,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -830,13 +830,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -905,13 +905,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -980,13 +980,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
@@ -1055,13 +1055,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>55563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
@@ -1111,13 +1111,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
@@ -1257,13 +1257,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
@@ -1313,13 +1313,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1388,13 +1388,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>363538</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>465138</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -1446,13 +1446,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1521,13 +1521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
@@ -1577,13 +1577,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>100012</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>195262</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
@@ -1741,13 +1741,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1894,13 +1894,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>182562</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -1988,13 +1988,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -2044,13 +2044,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>68264</xdr:rowOff>
@@ -2100,13 +2100,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>103187</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>11111</xdr:rowOff>
@@ -2156,13 +2156,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>112713</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
@@ -2214,13 +2214,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>182562</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>68264</xdr:rowOff>
@@ -2272,13 +2272,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>198437</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>11111</xdr:rowOff>
@@ -2330,13 +2330,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>93663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
@@ -2388,13 +2388,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>339726</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
@@ -2518,13 +2518,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2624,13 +2624,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2791,13 +2791,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>44451</xdr:rowOff>
@@ -2847,13 +2847,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>433389</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>339727</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
@@ -2903,13 +2903,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>433388</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
@@ -2959,13 +2959,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
@@ -3017,13 +3017,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>244475</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -3315,13 +3315,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>60324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
@@ -3444,13 +3444,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -3552,13 +3552,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>458788</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
@@ -3608,13 +3608,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>458789</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -3664,13 +3664,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>244475</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>463551</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>174624</xdr:rowOff>
@@ -3720,13 +3720,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
@@ -3795,13 +3795,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>549275</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3870,13 +3870,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>244475</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
@@ -3928,13 +3928,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
@@ -3986,13 +3986,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>549275</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>98426</xdr:rowOff>
@@ -4042,13 +4042,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4154,13 +4154,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
@@ -4248,13 +4248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -4360,13 +4360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -4416,13 +4416,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>15876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -4472,13 +4472,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>74613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -4528,13 +4528,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>593725</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>593725</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4584,13 +4584,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
@@ -4659,13 +4659,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -4793,13 +4793,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -4868,13 +4868,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -4927,13 +4927,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
@@ -4985,13 +4985,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5043,13 +5043,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>125413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -5075,7 +5075,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 96724"/>
+            <a:gd name="adj1" fmla="val 96905"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -5102,13 +5102,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>471488</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
@@ -5160,13 +5160,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -5248,13 +5248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>26988</xdr:rowOff>
@@ -5306,13 +5306,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -5431,13 +5431,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5489,13 +5489,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -5564,13 +5564,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>263525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -5639,13 +5639,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
@@ -5714,13 +5714,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -5802,13 +5802,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -5890,13 +5890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>430213</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>98424</xdr:rowOff>
@@ -5946,13 +5946,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>430212</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>425449</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
@@ -6002,13 +6002,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
@@ -6062,13 +6062,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>195263</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -6119,13 +6119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>530225</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -6207,13 +6207,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>574675</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -6263,13 +6263,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>473075</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
@@ -6321,13 +6321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
@@ -6380,13 +6380,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -6412,7 +6412,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 80464"/>
+            <a:gd name="adj1" fmla="val 93493"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6439,16 +6439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6463,8 +6463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26212800" y="12858750"/>
-          <a:ext cx="1304925" cy="809625"/>
+          <a:off x="30019625" y="12430125"/>
+          <a:ext cx="1654175" cy="777875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6505,7 +6505,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>k_classified_data</a:t>
+            <a:t>k_classified_distances_v2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6514,16 +6514,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>41276</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>223839</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>188914</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>192089</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6541,8 +6541,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="24846757" y="10084593"/>
-          <a:ext cx="4791075" cy="757238"/>
+          <a:off x="28822651" y="9834562"/>
+          <a:ext cx="4619625" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -6570,14 +6570,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>481013</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
@@ -6594,8 +6594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10864850" y="12944475"/>
-          <a:ext cx="1803400" cy="730250"/>
+          <a:off x="14844713" y="12512675"/>
+          <a:ext cx="1781175" cy="708025"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6636,7 +6636,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>EDA Dedicated</a:t>
+            <a:t>EDA Classified Data</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6645,16 +6645,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>484188</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6672,8 +6672,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12668250" y="13261975"/>
-          <a:ext cx="13544550" cy="46038"/>
+          <a:off x="16629063" y="12820650"/>
+          <a:ext cx="13390562" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6701,13 +6701,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -6798,13 +6798,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>188913</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>195263</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -6854,16 +6854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6878,8 +6878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29009975" y="7296150"/>
-          <a:ext cx="1308100" cy="809625"/>
+          <a:off x="33299400" y="6931025"/>
+          <a:ext cx="1292225" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6923,29 +6923,1926 @@
             <a:t>all_groups</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Identify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> usable categories)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1465262</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>493712</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Rectangle 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ADDF83-A5A6-46B9-9FF7-787D3187F5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1465262" y="1504950"/>
+          <a:ext cx="1304925" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Data &amp; Outputs</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1216024</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Oval 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A98AEC3-7765-4824-95AC-ADB06715C7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1216024" y="2463800"/>
+          <a:ext cx="1803400" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Notebook title</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle: Rounded Corners 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84170B48-22F3-4FE4-A983-D07FB913C40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="3419476"/>
+          <a:ext cx="2508249" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Transformations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> and Data Manipulation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>84138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FF79A0-2782-4E0F-A114-A26FA5842AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="4618038"/>
+          <a:ext cx="609600" cy="1587"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E704CB-437B-494C-814B-BA44C54473FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="4829175"/>
+          <a:ext cx="619125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C42EA77-4188-4C2C-A7ED-64140A005EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="5000625"/>
+          <a:ext cx="619125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDotDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64295</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>159545</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rectangle 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99209F3-6AB0-4CA8-9878-C024D0B5B492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1731170" y="5578475"/>
+          <a:ext cx="1301750" cy="511175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Raw Data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1491457</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405607</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Oval 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E123F03-22F2-411C-8F57-5215C58E236A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1491457" y="6613525"/>
+          <a:ext cx="1787525" cy="720725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETL Alphabet DataPull</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65882</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161132</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rectangle 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C9318E-303A-418A-99DC-8275AE3C9A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1732757" y="7934325"/>
+          <a:ext cx="1301750" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>clean_data_nocomments_noviews</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1493045</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404020</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Oval 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CE3009-9F9D-4A47-9220-CDAA15287464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493045" y="9112250"/>
+          <a:ext cx="1784350" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EDA Dedicated</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1489870</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>407195</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Oval 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB360FE-52DF-4F36-9189-F6AD447317AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1489870" y="10448925"/>
+          <a:ext cx="1790700" cy="708025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Feature Engineering </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>396082</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>529432</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Oval 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA41C77-4144-4E74-9760-1BE301724B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="396082" y="13039725"/>
+          <a:ext cx="1800225" cy="714376"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Regression_v2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115095</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118270</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BBB8B7-2B75-4A7C-8EDB-F3DAADF52E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="100" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2385220" y="6092825"/>
+          <a:ext cx="3175" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116682</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118270</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Straight Arrow Connector 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA1DE0B-7BFB-45CB-9B65-14D205E7C905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="100" idx="4"/>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2386807" y="7331075"/>
+          <a:ext cx="1588" cy="606425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116682</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118270</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Straight Arrow Connector 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A87BE6-0F7A-43CD-BC63-549F03596216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="2"/>
+          <a:endCxn id="102" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2386807" y="8477250"/>
+          <a:ext cx="1588" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116683</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118270</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>87842</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Straight Arrow Connector 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6BA718-26CF-4946-93B3-72966F7F1969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="4"/>
+          <a:endCxn id="109" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2386808" y="11153775"/>
+          <a:ext cx="1587" cy="665692"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>642145</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>29634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280195</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>48684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rectangle 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD21E385-7EF7-4E2D-8159-1BF611C9405E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="642145" y="14380634"/>
+          <a:ext cx="1304925" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>predictive model</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1291433</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1293020</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>26459</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Arrow Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEC402F-7058-48A3-A693-278D9FAED001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="4"/>
+          <a:endCxn id="125" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1291433" y="13757276"/>
+          <a:ext cx="1587" cy="620183"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66412</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160603</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rectangle 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39C02AB-04F0-414D-B3F7-5ECD00E0E9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733287" y="11816292"/>
+          <a:ext cx="1300691" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data_engineered</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1293020</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>87842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116683</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Straight Arrow Connector 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636FF6CB-6CB2-4D5F-A2AC-36EACE5A0B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="2"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1293020" y="12343342"/>
+          <a:ext cx="1093788" cy="693208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118270</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118270</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F1698C-2382-45CF-B3B8-5203EFAE14C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="4"/>
+          <a:endCxn id="103" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2388395" y="9820275"/>
+          <a:ext cx="0" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rectangle: Rounded Corners 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C6FEA7-7568-40AA-BCBF-B5D32DBA66F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15533688" y="15674976"/>
+          <a:ext cx="1590675" cy="644525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CSV: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>classified_genres4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>577851</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connector: Elbow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3060D09-1419-401F-96AD-6C7D296C612F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="335" idx="2"/>
+          <a:endCxn id="124" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="26389013" y="8370887"/>
+          <a:ext cx="219075" cy="9899650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>222412</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>163478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connector: Elbow 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4EE3C9-A980-4374-8963-424DFFB737B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="2"/>
+          <a:endCxn id="339" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="16970537" y="13117478"/>
+          <a:ext cx="2793839" cy="312773"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="lgDashDotDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>193676</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE0D38E-AAD7-44F4-B295-A311E5C07B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="339" idx="4"/>
+          <a:endCxn id="157" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16335375" y="13220700"/>
+          <a:ext cx="3176" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Oval 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14C53C5-7B73-43F3-A716-3A3829089274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19764375" y="12995275"/>
+          <a:ext cx="1781175" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>k_classified_distances_v2 (Excel workbook)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Oval 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7708AA-F65F-46EE-9BA1-AA720833E4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15427325" y="16998950"/>
+          <a:ext cx="1790700" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tableau</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>184151</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B68B04-67F1-4B73-BCE5-CBFC2707D405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="110" idx="2"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16319500" y="16316326"/>
+          <a:ext cx="9526" cy="679449"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="351" name="Straight Arrow Connector 350">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2377195B-CB35-4296-B28B-5A13C0E338FF}"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9694B0E7-7E5E-4956-8AE9-332BDC43E35A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6955,14 +8852,15 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28505150" y="7699375"/>
-          <a:ext cx="504825" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="32292925" y="7451725"/>
+          <a:ext cx="1006475" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -6985,23 +8883,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>399256</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>399256</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="355" name="Rectangle 354">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE58DD1E-E250-4490-BA38-2C788ABCF3D9}"/>
+        <xdr:cNvPr id="132" name="Oval 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5125EF-C373-46A9-B588-668E586B8F46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7009,10 +8907,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29067125" y="5749925"/>
-          <a:ext cx="1304925" cy="812800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="2669381" y="13049250"/>
+          <a:ext cx="1809750" cy="723901"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -7051,15 +8949,86 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>KNN</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Interpretation: In progress</a:t>
+            <a:t>Classification_v2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48419</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>48684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146844</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Rectangle 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F61F65-E8DB-4119-9982-1CD2DF3800AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2921794" y="14399684"/>
+          <a:ext cx="1304925" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>k_classified_distances_v2 </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -7073,79 +9042,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>163513</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="356" name="Straight Arrow Connector 355">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2751983-46DC-409C-9E48-117F326FCD52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="288" idx="6"/>
-          <a:endCxn id="355" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28527375" y="6145213"/>
-          <a:ext cx="539750" cy="11112"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1465262</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>493712</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>410369</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388144</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Rectangle 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ADDF83-A5A6-46B9-9FF7-787D3187F5AE}"/>
+        <xdr:cNvPr id="136" name="Oval 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B568D95E-D502-4213-A550-7B8850CE0DEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7153,10 +9066,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1465262" y="1504950"/>
-          <a:ext cx="1304925" cy="539750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="2680494" y="15367000"/>
+          <a:ext cx="1787525" cy="708025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -7195,7 +9108,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Data &amp; Outputs</a:t>
+            <a:t>EDA Classified Data</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7204,23 +9117,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1216024</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>410369</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388144</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Oval 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A98AEC3-7765-4824-95AC-ADB06715C7CB}"/>
+        <xdr:cNvPr id="137" name="Oval 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BDDF2A-7FB9-4F99-AF54-0143735CA79F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7228,8 +9141,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1216024" y="2463800"/>
-          <a:ext cx="1803400" cy="733425"/>
+          <a:off x="2680494" y="17633950"/>
+          <a:ext cx="1787525" cy="698500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7270,7 +9183,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Notebook title</a:t>
+            <a:t>Tableau</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7279,23 +9192,247 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116683</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>87842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97631</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="Straight Arrow Connector 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F399A0FB-E930-43EA-9B2F-A1FEBD0583F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="2"/>
+          <a:endCxn id="132" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2386808" y="12343342"/>
+          <a:ext cx="1187448" cy="705908"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94457</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97631</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>45509</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="227" name="Straight Arrow Connector 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8333DE1-69FF-47DD-B8E6-CFA89E5E8770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="132" idx="4"/>
+          <a:endCxn id="134" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3571082" y="13776326"/>
+          <a:ext cx="3174" cy="620183"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94457</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>64559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97632</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="Straight Arrow Connector 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1378385C-CBB9-4EB5-88F0-BA736EDD8237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="2"/>
+          <a:endCxn id="136" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571082" y="14939434"/>
+          <a:ext cx="3175" cy="424391"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97631</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97632</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="Straight Arrow Connector 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F33901-C9F6-4F60-B3BC-6268B5D43067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="4"/>
+          <a:endCxn id="145" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3574256" y="16075025"/>
+          <a:ext cx="1" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>507206</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Rectangle: Rounded Corners 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84170B48-22F3-4FE4-A983-D07FB913C40C}"/>
+        <xdr:cNvPr id="145" name="Rectangle: Rounded Corners 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9DF01-1BF3-4A5E-B452-F23B36E95B84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7303,11 +9440,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863600" y="3419476"/>
-          <a:ext cx="2508249" cy="571500"/>
+          <a:off x="2777331" y="16516350"/>
+          <a:ext cx="1600200" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -7335,6 +9474,252 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>classified_genres4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97631</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97632</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A68EF7-7641-4C2F-8914-19A4F7A2CEDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="145" idx="2"/>
+          <a:endCxn id="137" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3574256" y="17151350"/>
+          <a:ext cx="1" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="Rectangle: Rounded Corners 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FEA7CB-7375-46EB-8288-ED941DA75EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18157825" y="14354175"/>
+          <a:ext cx="2051050" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Class</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Details</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Quantitative determiners</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Word Clouds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="Rectangle: Rounded Corners 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B7A7D9-ED84-4DBF-B413-6EEC0DA5DCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15078075" y="14411325"/>
+          <a:ext cx="2508250" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
@@ -7345,15 +9730,21 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Transformations</a:t>
-          </a:r>
+            <a:t>New Features:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t> and Data Manipulation</a:t>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-[Genre tags]</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -7367,32 +9758,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>84138</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>184151</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Straight Arrow Connector 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FF79A0-2782-4E0F-A114-A26FA5842AE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="164" name="Straight Arrow Connector 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524C5C8B-7BF2-4996-ACE1-4D2F4EB3B106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="157" idx="2"/>
+          <a:endCxn id="110" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="4618038"/>
-          <a:ext cx="609600" cy="1587"/>
+        <a:xfrm flipH="1">
+          <a:off x="16329026" y="15087600"/>
+          <a:ext cx="6349" cy="590551"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7402,13 +9796,13 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="2">
           <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -7420,1091 +9814,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>22224</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E704CB-437B-494C-814B-BA44C54473FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1724025" y="4829175"/>
-          <a:ext cx="619125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="Straight Arrow Connector 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C42EA77-4188-4C2C-A7ED-64140A005EC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="5000625"/>
-          <a:ext cx="619125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="lgDashDotDot"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1264445</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>296070</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="Rectangle 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99209F3-6AB0-4CA8-9878-C024D0B5B492}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1264445" y="5721350"/>
-          <a:ext cx="1317625" cy="536575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Raw Data</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1018382</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542132</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="Oval 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E123F03-22F2-411C-8F57-5215C58E236A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1018382" y="6797675"/>
-          <a:ext cx="1809750" cy="732367"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ETL Alphabet DataPull</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1266032</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>294482</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Rectangle 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C9318E-303A-418A-99DC-8275AE3C9A61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1266032" y="8160808"/>
-          <a:ext cx="1314450" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>clean_data_nocomments_noviews</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1019970</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>540545</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="Oval 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CE3009-9F9D-4A47-9220-CDAA15287464}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019970" y="9366250"/>
-          <a:ext cx="1806575" cy="726017"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EDA Dedicated</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1016795</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>543720</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="Oval 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB360FE-52DF-4F36-9189-F6AD447317AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1016795" y="10739967"/>
-          <a:ext cx="1812925" cy="729191"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Feature Engineering </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1018382</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542132</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>98426</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="Oval 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA41C77-4144-4E74-9760-1BE301724B11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1018382" y="13413317"/>
-          <a:ext cx="1809750" cy="729192"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Regression_v2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251090</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251091</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BBB8B7-2B75-4A7C-8EDB-F3DAADF52E2F}"/>
+        <xdr:cNvPr id="252" name="Connector: Elbow 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7229A297-9035-4B0A-BDAB-1BBFEB34E3B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="99" idx="2"/>
-          <a:endCxn id="100" idx="0"/>
+          <a:stCxn id="339" idx="4"/>
+          <a:endCxn id="156" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1923257" y="6257925"/>
-          <a:ext cx="1" cy="539750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="17192625" y="12366625"/>
+          <a:ext cx="1136650" cy="2844799"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251090</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251090</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="Straight Arrow Connector 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA1DE0B-7BFB-45CB-9B65-14D205E7C905}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="100" idx="4"/>
-          <a:endCxn id="101" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1923257" y="7530042"/>
-          <a:ext cx="0" cy="630766"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251090</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251091</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="Straight Arrow Connector 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A87BE6-0F7A-43CD-BC63-549F03596216}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="101" idx="2"/>
-          <a:endCxn id="102" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1923257" y="8713258"/>
-          <a:ext cx="1" cy="652992"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251091</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251091</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="Straight Arrow Connector 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6BA718-26CF-4946-93B3-72966F7F1969}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="103" idx="4"/>
-          <a:endCxn id="109" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1923258" y="11469158"/>
-          <a:ext cx="0" cy="680509"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1264445</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>32809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>296070</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>45509</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Rectangle 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD21E385-7EF7-4E2D-8159-1BF611C9405E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1264445" y="14796559"/>
-          <a:ext cx="1317625" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>predictive model</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251090</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>98426</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251091</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>32809</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="Straight Arrow Connector 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEC402F-7058-48A3-A693-278D9FAED001}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="104" idx="4"/>
-          <a:endCxn id="125" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1923257" y="14142509"/>
-          <a:ext cx="1" cy="654050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1266562</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>293953</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>91017</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="Rectangle 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39C02AB-04F0-414D-B3F7-5ECD00E0E9A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1266562" y="12149667"/>
-          <a:ext cx="1313391" cy="546100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>data_engineered</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251090</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>91017</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251091</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="Straight Arrow Connector 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636FF6CB-6CB2-4D5F-A2AC-36EACE5A0B0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="109" idx="2"/>
-          <a:endCxn id="104" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1923257" y="12695767"/>
-          <a:ext cx="1" cy="717550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251091</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251091</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F1698C-2382-45CF-B3B8-5203EFAE14C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="102" idx="4"/>
-          <a:endCxn id="103" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1923258" y="10092267"/>
-          <a:ext cx="0" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -8807,16 +10150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8831,8 +10174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="6572249"/>
-          <a:ext cx="2616200" cy="673101"/>
+          <a:off x="4276725" y="3133724"/>
+          <a:ext cx="2619375" cy="676276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8892,16 +10235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>53976</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8916,8 +10259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4219575" y="5715000"/>
-          <a:ext cx="2619375" cy="673101"/>
+          <a:off x="4314825" y="6378575"/>
+          <a:ext cx="2619375" cy="679451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8976,16 +10319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9000,7 +10343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4264025" y="4752975"/>
+          <a:off x="4311650" y="63500"/>
           <a:ext cx="2619375" cy="676276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9055,16 +10398,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9079,8 +10422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4264025" y="3930650"/>
-          <a:ext cx="2619375" cy="679451"/>
+          <a:off x="4321175" y="5353050"/>
+          <a:ext cx="2619375" cy="676276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9139,16 +10482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104777</xdr:rowOff>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9163,8 +10506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314825" y="2838451"/>
-          <a:ext cx="2616200" cy="885826"/>
+          <a:off x="4238625" y="4140201"/>
+          <a:ext cx="2616200" cy="889001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9226,15 +10569,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9249,8 +10592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4292600" y="400049"/>
-          <a:ext cx="3124200" cy="2314575"/>
+          <a:off x="4276725" y="1000124"/>
+          <a:ext cx="3124200" cy="2009776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9291,6 +10634,27 @@
             </a:rPr>
             <a:t>data</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Files</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> are data used directly in model</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" b="1">
             <a:effectLst/>
           </a:endParaRPr>
@@ -9357,19 +10721,6 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>k_classified_data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>  Output from unsupervised learning model intended to be used for word clouds</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -9377,15 +10728,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>111126</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9400,8 +10751,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9096375" y="511175"/>
-          <a:ext cx="2619375" cy="685801"/>
+          <a:off x="9074150" y="177800"/>
+          <a:ext cx="2622550" cy="685801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9462,16 +10813,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9486,8 +10837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9144000" y="1450974"/>
-          <a:ext cx="2616200" cy="1911351"/>
+          <a:off x="9058275" y="914399"/>
+          <a:ext cx="3324225" cy="1752601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9633,15 +10984,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9656,7 +11007,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9096375" y="4029075"/>
+          <a:off x="9048750" y="2771775"/>
           <a:ext cx="2616200" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9742,15 +11093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9765,8 +11116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8855075" y="6181724"/>
-          <a:ext cx="2622550" cy="1304925"/>
+          <a:off x="9029700" y="4791074"/>
+          <a:ext cx="2619375" cy="1435101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9815,826 +11166,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>kclassed data for manual examination</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t># - individual csv output</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>all_groups</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF423E21-CC0B-4E3B-B613-90BCE7C8D8D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2971800" y="1557337"/>
-          <a:ext cx="1320800" cy="2347912"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>20639</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E380972D-D638-47E8-A106-BA988CF73D8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2971800" y="3278189"/>
-          <a:ext cx="1339850" cy="627060"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>106363</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3125A7-2A0A-4598-8018-5F6F0874F26C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971800" y="3905249"/>
-          <a:ext cx="1292225" cy="363539"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22226</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFD0372-7913-4801-B62F-3FCAA4B3A19E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971800" y="3905249"/>
-          <a:ext cx="1292225" cy="1184277"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>77788</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62960EC6-5BCC-44CE-A3FA-E4891ABB2DD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971800" y="3905249"/>
-          <a:ext cx="1244600" cy="2144714"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF3868C-E1FC-44AD-A49F-6C768D1DFA0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971800" y="3905249"/>
-          <a:ext cx="1219200" cy="3005138"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>130176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FFCB9E-9147-4415-818C-0F264359D487}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="10" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7416800" y="854076"/>
-          <a:ext cx="1676400" cy="703261"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B762251F-58F1-4CD5-A9BD-49C24A65F2D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7416800" y="1557337"/>
-          <a:ext cx="1727200" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019E5F62-DDAC-4D8E-A640-7454CF665217}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7419975" y="1558924"/>
-          <a:ext cx="1676400" cy="3384551"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA5B569-EF71-4631-980E-2787A6EFCF60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7419975" y="1558924"/>
-          <a:ext cx="1435100" cy="5275263"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="TextBox 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7EB4DD-BE51-4A6E-971B-E4364F7B9D49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="742951"/>
-          <a:ext cx="2619375" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Coloration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" baseline="0">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> denotes prime path</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="TextBox 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B9FCE9-C445-4EB3-A28B-FC22A5571607}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13277850" y="542924"/>
-          <a:ext cx="2619375" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Round1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0"/>
-            <a:t>outputs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> of each individual sub-query from ETL_alphabet. Round 1 is the data used for all training and modelling. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="TextBox 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6C6D68-5745-426D-A67E-F0879B4653B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13277850" y="1447800"/>
-          <a:ext cx="2616200" cy="971550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>Round2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -10655,35 +11186,53 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>outputs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
+            <a:t>classified_genres4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>k_classified_distances_v2_analyzed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> of each individual sub-query from ETL_alphabet. Round 2 is the data used for assessment of model on newer videos</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            <a:t>k_classified_distances_v2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>all_groups_analyzed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>all_groups</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10691,35 +11240,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>46037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3944911D-F793-476D-BB11-02D33326AE11}"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF423E21-CC0B-4E3B-B613-90BCE7C8D8D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="85" idx="1"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11760200" y="950912"/>
-          <a:ext cx="1517650" cy="1455738"/>
+          <a:off x="2971800" y="2005012"/>
+          <a:ext cx="1301750" cy="1900237"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10747,35 +11296,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122238</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60327</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECF42E8-3E65-4450-B6CC-E3839A8AB365}"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E380972D-D638-47E8-A106-BA988CF73D8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="86" idx="1"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11760200" y="1931988"/>
-          <a:ext cx="1517650" cy="474662"/>
+        <a:xfrm>
+          <a:off x="2971800" y="3905249"/>
+          <a:ext cx="1263650" cy="679453"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10803,23 +11352,471 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>130176</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3125A7-2A0A-4598-8018-5F6F0874F26C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="3905249"/>
+          <a:ext cx="1349375" cy="1784352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>41276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFD0372-7913-4801-B62F-3FCAA4B3A19E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2971800" y="403226"/>
+          <a:ext cx="1343025" cy="3502023"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62960EC6-5BCC-44CE-A3FA-E4891ABB2DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="3905249"/>
+          <a:ext cx="1339850" cy="2814639"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF3868C-E1FC-44AD-A49F-6C768D1DFA0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2971800" y="3470275"/>
+          <a:ext cx="1301750" cy="434974"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FFCB9E-9147-4415-818C-0F264359D487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7397750" y="523876"/>
+          <a:ext cx="1679575" cy="1481136"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B762251F-58F1-4CD5-A9BD-49C24A65F2D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7397750" y="1790700"/>
+          <a:ext cx="1660525" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019E5F62-DDAC-4D8E-A640-7454CF665217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7397750" y="2005012"/>
+          <a:ext cx="1651000" cy="1681163"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA5B569-EF71-4631-980E-2787A6EFCF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7397750" y="2005012"/>
+          <a:ext cx="1631950" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="TextBox 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086AF5D3-BC2A-4345-A4AB-192D66E2A1D6}"/>
+        <xdr:cNvPr id="84" name="TextBox 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7EB4DD-BE51-4A6E-971B-E4364F7B9D49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10827,8 +11824,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13303250" y="3968750"/>
-          <a:ext cx="2622550" cy="685801"/>
+          <a:off x="276225" y="276225"/>
+          <a:ext cx="2619375" cy="669924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10863,10 +11860,116 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Coloration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> denotes prime path</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Coloration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> denotes unsupervised classification path</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="TextBox 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B9FCE9-C445-4EB3-A28B-FC22A5571607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13277850" y="542924"/>
+          <a:ext cx="2619375" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:effectLst/>
             </a:rPr>
-            <a:t>Archive</a:t>
+            <a:t>Round1</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" b="1">
             <a:effectLst/>
@@ -10874,6 +11977,328 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>outputs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> of each individual sub-query from ETL_alphabet. Round 1 is the data used for all training and modelling. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="TextBox 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6C6D68-5745-426D-A67E-F0879B4653B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13277850" y="1447800"/>
+          <a:ext cx="2616200" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Round2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>outputs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of each individual sub-query from ETL_alphabet. Round 2 is the data used for assessment of model on newer videos</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>46037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3944911D-F793-476D-BB11-02D33326AE11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12382500" y="950912"/>
+          <a:ext cx="895350" cy="839788"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECF42E8-3E65-4450-B6CC-E3839A8AB365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="86" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12382500" y="1790700"/>
+          <a:ext cx="895350" cy="141288"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="TextBox 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086AF5D3-BC2A-4345-A4AB-192D66E2A1D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13154025" y="3273425"/>
+          <a:ext cx="2619375" cy="685801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Archive</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Unused or</a:t>
           </a:r>
@@ -10890,15 +12315,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>149226</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10916,8 +12341,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11712575" y="4311651"/>
-          <a:ext cx="1593850" cy="628649"/>
+          <a:off x="11668125" y="3617913"/>
+          <a:ext cx="1482725" cy="68262"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11580,24 +13005,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA93D87-C1D9-4C02-9C75-3797DDA0A849}">
-  <dimension ref="A1:BN95"/>
+  <dimension ref="A1:BO95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A37" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC89" sqref="AC89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.90625" style="34" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" style="34"/>
-    <col min="6" max="22" width="8.7265625" style="27"/>
-    <col min="23" max="33" width="8.7265625" style="28"/>
-    <col min="34" max="46" width="8.7265625" style="29"/>
-    <col min="47" max="62" width="8.7265625" style="30"/>
-    <col min="63" max="16384" width="8.7265625" style="27"/>
+    <col min="2" max="6" width="8.7265625" style="34"/>
+    <col min="7" max="23" width="8.7265625" style="27"/>
+    <col min="24" max="34" width="8.7265625" style="28"/>
+    <col min="35" max="47" width="8.7265625" style="29"/>
+    <col min="48" max="63" width="8.7265625" style="30"/>
+    <col min="64" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:63" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
@@ -11605,10 +13030,10 @@
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="32"/>
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
@@ -11624,23 +13049,23 @@
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
       <c r="V1" s="32"/>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="32"/>
+      <c r="X1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33"/>
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="33"/>
       <c r="AG1" s="32"/>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="33"/>
       <c r="AJ1" s="33"/>
       <c r="AK1" s="33"/>
       <c r="AL1" s="33"/>
@@ -11652,10 +13077,10 @@
       <c r="AR1" s="33"/>
       <c r="AS1" s="33"/>
       <c r="AT1" s="33"/>
-      <c r="AU1" s="33" t="s">
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AV1" s="33"/>
       <c r="AW1" s="33"/>
       <c r="AX1" s="33"/>
       <c r="AY1" s="33"/>
@@ -11670,6 +13095,7 @@
       <c r="BH1" s="33"/>
       <c r="BI1" s="33"/>
       <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
@@ -11691,8 +13117,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="66:66" x14ac:dyDescent="0.35">
-      <c r="BN95" s="27" t="s">
+    <row r="95" spans="67:67" x14ac:dyDescent="0.35">
+      <c r="BO95" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11706,8 +13132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C5F6F7-DFED-450D-9AF6-86F48E760633}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
